--- a/NewTimesheet.xlsx
+++ b/NewTimesheet.xlsx
@@ -888,7 +888,7 @@
   <dimension ref="A1:AC60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="R7" s="57">
         <f>H55</f>
-        <v>32.25</v>
+        <v>32</v>
       </c>
       <c r="S7" s="57">
         <f>I55</f>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="U7" s="75">
         <f>L55</f>
-        <v>32.25</v>
+        <v>32</v>
       </c>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="R8" s="66">
         <f>SUM(R3:R7)</f>
-        <v>145</v>
+        <v>144.75</v>
       </c>
       <c r="S8" s="66">
         <f>SUM(S3:S7)</f>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="U8" s="76">
         <f>SUM(U3:U7)</f>
-        <v>145</v>
+        <v>144.75</v>
       </c>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
@@ -2611,10 +2611,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="68">
-        <v>0.33333333333333331</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="C51" s="68">
-        <v>0.72916666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="D51" s="68"/>
       <c r="E51" s="68"/>
@@ -2622,7 +2622,7 @@
       <c r="G51" s="68"/>
       <c r="H51" s="43">
         <f t="shared" si="16"/>
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="I51" s="58"/>
       <c r="J51" s="58"/>
@@ -2631,11 +2631,11 @@
       </c>
       <c r="L51" s="70">
         <f t="shared" si="17"/>
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="M51" s="71">
         <f t="shared" si="18"/>
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
@@ -2650,7 +2650,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C52" s="68">
-        <v>0.58333333333333337</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D52" s="68"/>
       <c r="E52" s="68"/>
@@ -2658,7 +2658,7 @@
       <c r="G52" s="68"/>
       <c r="H52" s="43">
         <f t="shared" si="16"/>
-        <v>6.0000000000000018</v>
+        <v>8.2500000000000018</v>
       </c>
       <c r="I52" s="58"/>
       <c r="J52" s="58"/>
@@ -2667,11 +2667,11 @@
       </c>
       <c r="L52" s="70">
         <f t="shared" si="17"/>
-        <v>6.0000000000000018</v>
+        <v>8.2500000000000018</v>
       </c>
       <c r="M52" s="71">
         <f t="shared" si="18"/>
-        <v>-1.9999999999999982</v>
+        <v>0.25000000000000178</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="15"/>
@@ -2753,7 +2753,7 @@
       <c r="G55" s="29"/>
       <c r="H55" s="44">
         <f>SUM(H48:H54)</f>
-        <v>32.25</v>
+        <v>32</v>
       </c>
       <c r="I55" s="44">
         <f>SUM(I48:I54)</f>
@@ -2769,11 +2769,11 @@
       </c>
       <c r="L55" s="72">
         <f>SUM(L48:L54)</f>
-        <v>32.25</v>
+        <v>32</v>
       </c>
       <c r="M55" s="72">
         <f>L55-K55</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>

--- a/NewTimesheet.xlsx
+++ b/NewTimesheet.xlsx
@@ -888,7 +888,7 @@
   <dimension ref="A1:AC60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,7 +2542,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C49" s="68">
-        <v>0.75</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="D49" s="68"/>
       <c r="E49" s="68"/>
@@ -2550,7 +2550,7 @@
       <c r="G49" s="68"/>
       <c r="H49" s="43">
         <f t="shared" ref="H49:H52" si="16">(SUM(C49-B49)*24)+(SUM(E49-D49)*24)+(SUM(G49-F49)*24)</f>
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="I49" s="58"/>
       <c r="J49" s="58"/>
@@ -2559,11 +2559,11 @@
       </c>
       <c r="L49" s="70">
         <f t="shared" ref="L49:L54" si="17">H49+I49+J49</f>
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="M49" s="71">
         <f t="shared" ref="M49:M54" si="18">L49-K49</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N49" s="17"/>
       <c r="O49" s="17"/>
@@ -2647,10 +2647,10 @@
         <v>9</v>
       </c>
       <c r="B52" s="68">
-        <v>0.33333333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C52" s="68">
-        <v>0.67708333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="D52" s="68"/>
       <c r="E52" s="68"/>
@@ -2658,7 +2658,7 @@
       <c r="G52" s="68"/>
       <c r="H52" s="43">
         <f t="shared" si="16"/>
-        <v>8.2500000000000018</v>
+        <v>8</v>
       </c>
       <c r="I52" s="58"/>
       <c r="J52" s="58"/>
@@ -2667,11 +2667,11 @@
       </c>
       <c r="L52" s="70">
         <f t="shared" si="17"/>
-        <v>8.2500000000000018</v>
+        <v>8</v>
       </c>
       <c r="M52" s="71">
         <f t="shared" si="18"/>
-        <v>0.25000000000000178</v>
+        <v>0</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="15"/>

--- a/NewTimesheet.xlsx
+++ b/NewTimesheet.xlsx
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,7 +2614,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="C51" s="68">
-        <v>0.78125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D51" s="68"/>
       <c r="E51" s="68"/>
@@ -2622,7 +2622,7 @@
       <c r="G51" s="68"/>
       <c r="H51" s="43">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="I51" s="58"/>
       <c r="J51" s="58"/>
@@ -2631,11 +2631,11 @@
       </c>
       <c r="L51" s="70">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="M51" s="71">
         <f t="shared" si="18"/>
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
@@ -2647,10 +2647,10 @@
         <v>9</v>
       </c>
       <c r="B52" s="68">
-        <v>0.47916666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="C52" s="68">
-        <v>0.8125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D52" s="68"/>
       <c r="E52" s="68"/>
@@ -2658,7 +2658,7 @@
       <c r="G52" s="68"/>
       <c r="H52" s="43">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>7.7499999999999991</v>
       </c>
       <c r="I52" s="58"/>
       <c r="J52" s="58"/>
@@ -2667,11 +2667,11 @@
       </c>
       <c r="L52" s="70">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>7.7499999999999991</v>
       </c>
       <c r="M52" s="71">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-0.25000000000000089</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="15"/>

--- a/NewTimesheet.xlsx
+++ b/NewTimesheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="390" windowWidth="15135" windowHeight="8070"/>
+    <workbookView xWindow="528" yWindow="396" windowWidth="15132" windowHeight="8076"/>
   </bookViews>
   <sheets>
     <sheet name="7 Days" sheetId="2" r:id="rId1"/>
@@ -875,29 +875,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="19" customWidth="1"/>
-    <col min="13" max="15" width="7.5703125" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="19" customWidth="1"/>
+    <col min="13" max="15" width="7.5546875" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="22"/>
@@ -922,7 +922,7 @@
       <c r="W1" s="8"/>
       <c r="X1" s="9"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="23"/>
       <c r="C2" s="22"/>
@@ -944,7 +944,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>18</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="26" t="s">
@@ -1266,7 +1266,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1278,7 +1278,7 @@
       <c r="J12" s="52"/>
       <c r="L12" s="41"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -1291,7 +1291,7 @@
       <c r="L13" s="42"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>16</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>5</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>7</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1462,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>10</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>4</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="26" t="s">
@@ -1593,7 +1593,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -1609,7 +1609,7 @@
       <c r="O23" s="14"/>
       <c r="P23" s="15"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -1625,7 +1625,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>17</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>6</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>7</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="O28" s="14"/>
       <c r="P28" s="15"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>8</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="O29" s="14"/>
       <c r="P29" s="15"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>9</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>10</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>4</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="P32" s="12"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="26" t="s">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="P33" s="14"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="27"/>
       <c r="B34" s="28"/>
       <c r="C34" s="29"/>
@@ -1953,7 +1953,7 @@
       <c r="L34" s="35"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="27"/>
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
@@ -1968,7 +1968,7 @@
       <c r="L35" s="35"/>
       <c r="P35" s="12"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="66" t="s">
         <v>19</v>
       </c>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="P36" s="15"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="66" t="s">
         <v>5</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="P37" s="15"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="66" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="66" t="s">
         <v>7</v>
       </c>
@@ -2097,7 +2097,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="66" t="s">
         <v>8</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="66" t="s">
         <v>9</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="66" t="s">
         <v>10</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="66" t="s">
         <v>4</v>
       </c>
@@ -2217,7 +2217,7 @@
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="77"/>
       <c r="B44" s="77"/>
       <c r="C44" s="78" t="s">
@@ -2254,7 +2254,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -2271,7 +2271,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -2289,7 +2289,7 @@
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
         <v>20</v>
       </c>
@@ -2333,7 +2333,7 @@
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2364,7 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>6</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
         <v>7</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="O50" s="16"/>
       <c r="P50" s="16"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>8</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>9</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>10</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
         <v>4</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="26" t="s">
@@ -2604,7 +2604,7 @@
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
@@ -2622,7 +2622,7 @@
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="32"/>
       <c r="C57" s="33"/>
@@ -2640,7 +2640,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>22</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="O58" s="16"/>
       <c r="P58" s="16"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
         <v>5</v>
       </c>
@@ -2698,44 +2698,52 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E59" s="58">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F59" s="58"/>
       <c r="G59" s="58"/>
       <c r="H59" s="39">
         <f>(SUM(C59-B59)*24)+(SUM(E59-D59)*24)+(SUM(G59-F59)*24)</f>
-        <v>5.9999999999999982</v>
+        <v>7</v>
       </c>
       <c r="I59" s="51"/>
       <c r="J59" s="51"/>
       <c r="K59" s="59">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L59" s="60">
         <f>H59+I59+J59</f>
-        <v>5.9999999999999982</v>
+        <v>7</v>
       </c>
       <c r="M59" s="61">
         <f>L59-K59</f>
-        <v>5.9999999999999982</v>
+        <v>-1</v>
       </c>
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
       <c r="P59" s="16"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
+      <c r="B60" s="58">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C60" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="58">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E60" s="58">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F60" s="58"/>
       <c r="G60" s="58"/>
       <c r="H60" s="39">
         <f t="shared" ref="H60:H63" si="20">(SUM(C60-B60)*24)+(SUM(E60-D60)*24)+(SUM(G60-F60)*24)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I60" s="51"/>
       <c r="J60" s="51"/>
@@ -2744,29 +2752,37 @@
       </c>
       <c r="L60" s="60">
         <f t="shared" ref="L60:L65" si="21">H60+I60+J60</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M60" s="61">
         <f t="shared" ref="M60:M65" si="22">L60-K60</f>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
+      <c r="B61" s="58">
+        <v>0.375</v>
+      </c>
+      <c r="C61" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="58">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E61" s="58">
+        <v>0.75</v>
+      </c>
       <c r="F61" s="58"/>
       <c r="G61" s="58"/>
       <c r="H61" s="39">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I61" s="51"/>
       <c r="J61" s="51"/>
@@ -2775,29 +2791,37 @@
       </c>
       <c r="L61" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="M61" s="61">
         <f t="shared" si="22"/>
-        <v>-8</v>
+        <v>0.5</v>
       </c>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
+      <c r="B62" s="58">
+        <v>0.375</v>
+      </c>
+      <c r="C62" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="58">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E62" s="58">
+        <v>0.75</v>
+      </c>
       <c r="F62" s="58"/>
       <c r="G62" s="58"/>
       <c r="H62" s="39">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I62" s="51"/>
       <c r="J62" s="51"/>
@@ -2806,26 +2830,34 @@
       </c>
       <c r="L62" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="M62" s="61">
         <f t="shared" si="22"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
+      <c r="B63" s="58">
+        <v>0.375</v>
+      </c>
+      <c r="C63" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="D63" s="58">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E63" s="58">
+        <v>0.75</v>
+      </c>
       <c r="F63" s="58"/>
       <c r="G63" s="58"/>
       <c r="H63" s="39">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I63" s="51"/>
       <c r="J63" s="51"/>
@@ -2834,14 +2866,14 @@
       </c>
       <c r="L63" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="M63" s="61">
         <f t="shared" si="22"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
         <v>10</v>
       </c>
@@ -2858,7 +2890,7 @@
       <c r="I64" s="51"/>
       <c r="J64" s="51"/>
       <c r="K64" s="59">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L64" s="60">
         <f t="shared" si="21"/>
@@ -2866,10 +2898,10 @@
       </c>
       <c r="M64" s="61">
         <f t="shared" si="22"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="24" t="s">
         <v>4</v>
       </c>
@@ -2897,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="26" t="s">
@@ -2909,7 +2941,7 @@
       <c r="G66" s="26"/>
       <c r="H66" s="40">
         <f>SUM(H59:H65)</f>
-        <v>5.9999999999999982</v>
+        <v>40.5</v>
       </c>
       <c r="I66" s="40">
         <f>SUM(I59:I65)</f>
@@ -2925,11 +2957,11 @@
       </c>
       <c r="L66" s="62">
         <f>SUM(L59:L65)</f>
-        <v>5.9999999999999982</v>
+        <v>40.5</v>
       </c>
       <c r="M66" s="62">
         <f>L66-K66</f>
-        <v>-34</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2946,13 +2978,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="46" t="s">
         <v>3</v>
@@ -2967,7 +2999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="str">
         <f>'7 Days'!A3</f>
         <v>Week of 29/05/17</v>
@@ -2989,7 +3021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f>'7 Days'!A14</f>
         <v>Week of 05/06/17</v>
@@ -3011,7 +3043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="str">
         <f>'7 Days'!A25</f>
         <v>Week of 12/06/17</v>
@@ -3033,7 +3065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="str">
         <f>'7 Days'!A36</f>
         <v>Week of 19/06/17</v>
@@ -3055,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="str">
         <f>'7 Days'!A47</f>
         <v>Week of 26/06/17</v>
@@ -3077,14 +3109,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="str">
         <f>'7 Days'!A58</f>
         <v>Week of 03/07/17</v>
       </c>
       <c r="B8" s="50">
         <f>'7 Days'!H66</f>
-        <v>5.9999999999999982</v>
+        <v>40.5</v>
       </c>
       <c r="C8" s="50">
         <f>'7 Days'!I66</f>
@@ -3099,63 +3131,63 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="48"/>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="48"/>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="48"/>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>2</v>
       </c>
